--- a/medicine/Enfance/Erin_E._Stead/Erin_E._Stead.xlsx
+++ b/medicine/Enfance/Erin_E._Stead/Erin_E._Stead.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erin E. Stead (née le 27 décembre 1982) est une auteure, bibliothécaire et illustratrice américaine, notamment en littérature jeunesse.  Elle a remporté une médaille Caldecott [1],[2],[3]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erin E. Stead (née le 27 décembre 1982) est une auteure, bibliothécaire et illustratrice américaine, notamment en littérature jeunesse.  Elle a remporté une médaille Caldecott 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Stead est née à Farmington Hills, Michigan, et a rencontré son mari, Philip Christian Stead, dans une classe d'art au Divine Child High School à Dearborn, Michigan. Ils se sont mariés en septembre 2005 et ont déménagé à New York, où il a travaillé au Brooklyn Children's Museum . Elle a travaillé à la librairie Books of Wonder et comme assistante du directeur de la création chez HarperCollins Children's Books.  Après être retournés à Ann Arbor, ils ont collaboré un jour de maladie pour Amos McGee , le jour où un gardien de zoo reste à la maison parce qu'il est malade.  C'était son deuxième livre et son premier. Philip a écrit des personnages qu'il jugeait parfait pour qu'Erin puisse illustrer.  Elle a utilisé des blocs de bois pour le travail des couleurs et des lignes de crayon pour les détails. Amos McGee a été édité par Neal Porter à Roaring Brooks Press et nommé l'un des "10 meilleurs livres illustrés pour enfants" pour 2010 par le New York Times . 
 Le deuxième livre de Stead, And Then It's Spring , écrit par Julie Fogliano (Neal Porter, 2012), a été finaliste pour le Boston Globe – Horn Book Award 2012 . [ citation nécessaire ] . Lenny &amp; Lucy sont arrivés en 2015.
@@ -544,7 +558,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a remporté la médaille Caldecott 2011 pour le livre d'images américain le mieux illustré de l'année, reconnaissant sa première publication, A Sick Day for Amos McGee . 
 </t>
